--- a/output/帳票1.xlsx
+++ b/output/帳票1.xlsx
@@ -524,37 +524,37 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>1393874</v>
+        <v>348522</v>
       </c>
       <c r="D3">
-        <v>174717026</v>
+        <v>43689294</v>
       </c>
       <c r="E3">
-        <v>125.3463555529409</v>
+        <v>125.3559144042557</v>
       </c>
       <c r="F3">
-        <v>156940</v>
+        <v>39248</v>
       </c>
       <c r="G3">
-        <v>0.1125926733693289</v>
+        <v>0.1126126901601621</v>
       </c>
       <c r="H3">
         <v>286</v>
       </c>
       <c r="I3">
-        <v>608388</v>
+        <v>152125</v>
       </c>
       <c r="J3">
-        <v>0.4364727371340595</v>
+        <v>0.4364860754844744</v>
       </c>
       <c r="K3">
         <v>907</v>
       </c>
       <c r="L3">
-        <v>1079598</v>
+        <v>269993</v>
       </c>
       <c r="M3">
-        <v>0.7745305529768114</v>
+        <v>0.7746799341218058</v>
       </c>
       <c r="N3">
         <v>903</v>
